--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -19,7 +19,7 @@
     <t>Destination City</t>
   </si>
   <si>
-    <t xml:space="preserve">New York	</t>
+    <t>Boston</t>
   </si>
   <si>
     <t>London</t>
@@ -28,13 +28,13 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Dubai</t>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
   </si>
 </sst>
 </file>
